--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 9 (19, 31, 22, 5, 21)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(19, 31, 22, 5, 21)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 1 (40, 15, 6, 37, 25)/Ableson 9 (19, 31, 22, 5, 21)/NCDE_32nodes_Uniform0.05Virtual_Nelson(40, 15, 6, 37, 25)_Ableson(19, 31, 22, 5, 21)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.999999840411803</v>
+        <v>0.999999841026622</v>
       </c>
       <c r="E2">
-        <v>0.999999840411803</v>
+        <v>0.999999841026622</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.999996445643798</v>
+        <v>0.9999964841144882</v>
       </c>
       <c r="E3">
-        <v>0.999996445643798</v>
+        <v>0.9999964841144882</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5476533908104171</v>
+        <v>0.5473885312129469</v>
       </c>
       <c r="E4">
-        <v>0.5476533908104171</v>
+        <v>0.5473885312129469</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9999999999993774</v>
+        <v>0.9999999999993945</v>
       </c>
       <c r="E5">
-        <v>0.9999999999993774</v>
+        <v>0.9999999999993945</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9865381076403186</v>
+        <v>0.986566140412361</v>
       </c>
       <c r="E6">
-        <v>0.9865381076403186</v>
+        <v>0.986566140412361</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9961317253473203</v>
+        <v>0.9386490327717458</v>
       </c>
       <c r="E7">
-        <v>0.003868274652679693</v>
+        <v>0.06135096722825417</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9968899857322012</v>
+        <v>3.203158577392164E-10</v>
       </c>
       <c r="E8">
-        <v>0.003110014267798777</v>
+        <v>0.9999999996796841</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9965546796598822</v>
+        <v>0.9988106881357675</v>
       </c>
       <c r="E9">
-        <v>0.003445320340117797</v>
+        <v>0.001189311864232545</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9955180568429988</v>
+        <v>0.002130186810853152</v>
       </c>
       <c r="E10">
-        <v>0.004481943157001234</v>
+        <v>0.9978698131891468</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9968990855324706</v>
+        <v>0.9999999999968174</v>
       </c>
       <c r="E11">
-        <v>0.003100914467529359</v>
+        <v>3.182565322390474E-12</v>
       </c>
       <c r="F11">
-        <v>6.142206192016602</v>
+        <v>8.95258617401123</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9999999963339721</v>
+        <v>0.9999999963379553</v>
       </c>
       <c r="E12">
-        <v>0.9999999963339721</v>
+        <v>0.9999999963379553</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.995045995548393</v>
+        <v>0.9950529196379437</v>
       </c>
       <c r="E13">
-        <v>0.995045995548393</v>
+        <v>0.9950529196379437</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5639247621772407</v>
+        <v>0.5641094717838079</v>
       </c>
       <c r="E14">
-        <v>0.5639247621772407</v>
+        <v>0.5641094717838079</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1.088090370650773E-23</v>
+        <v>1.431091321125057E-23</v>
       </c>
       <c r="E15">
-        <v>1.088090370650773E-23</v>
+        <v>1.431091321125057E-23</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.9994773310594985</v>
+        <v>0.9994776043491816</v>
       </c>
       <c r="E16">
-        <v>0.9994773310594985</v>
+        <v>0.9994776043491816</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9987448036011318</v>
+        <v>0.8761437685956361</v>
       </c>
       <c r="E17">
-        <v>0.001255196398868175</v>
+        <v>0.1238562314043639</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9990592522440963</v>
+        <v>0.01977734136978154</v>
       </c>
       <c r="E18">
-        <v>0.0009407477559036925</v>
+        <v>0.9802226586302185</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9989552351040174</v>
+        <v>0.9998489536455246</v>
       </c>
       <c r="E19">
-        <v>0.001044764895982597</v>
+        <v>0.0001510463544753815</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9986000342805244</v>
+        <v>0.0005426545148217582</v>
       </c>
       <c r="E20">
-        <v>0.001399965719475649</v>
+        <v>0.9994573454851783</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.999189140765974</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0.0008108592340260179</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>3.31236720085144</v>
+        <v>4.46962833404541</v>
       </c>
       <c r="G21">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
